--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56091.38212320933</v>
+        <v>11157857.0272719</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56091.38212320933</v>
+        <v>11157857.0272719</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21769.98402467323</v>
+        <v>2739167.339468431</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21769.98402467323</v>
+        <v>2739167.339468431</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495565718.529258</v>
+        <v>59678022.77046642</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12550.23000258403</v>
+        <v>1379572.324420971</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24133.41851516527</v>
+        <v>2607464.93874525</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35716.6070277465</v>
+        <v>3835357.553069531</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48387.75044543543</v>
+        <v>4917165.983874618</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60320.67646392155</v>
+        <v>6098554.698782157</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72294.56995112896</v>
+        <v>7310399.483565717</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84285.10835156254</v>
+        <v>8548251.907182921</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96225.59745906682</v>
+        <v>9776144.521507196</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108809.3129979678</v>
+        <v>10840554.80443349</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120425.9266712469</v>
+        <v>12068447.41875776</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132042.540344526</v>
+        <v>13296340.03308204</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>143659.154017805</v>
+        <v>14524232.64740633</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>155275.7676910841</v>
+        <v>15752125.26173062</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>167689.3218353848</v>
+        <v>16833337.92598986</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>183201.4230433453</v>
+        <v>17483606.23362938</v>
       </c>
     </row>
   </sheetData>
